--- a/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5339,7 +5339,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>4516</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6211</t>
+          <t>7544</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6741</t>
+          <t>7479</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4779</t>
+          <t>5170</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9145</t>
+          <t>10334</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6764</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4884</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9030</t>
+          <t>9488</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>4792</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3268</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>7248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11456</t>
+          <t>11556</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8535</t>
+          <t>8772</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14591</t>
+          <t>14899</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23931</t>
+          <t>25019</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20532</t>
+          <t>21635</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27220</t>
+          <t>28641</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22414</t>
+          <t>24186</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19072</t>
+          <t>20787</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25981</t>
+          <t>28205</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>46345</t>
+          <t>49204</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>41668</t>
+          <t>43931</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>51702</t>
+          <t>54411</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>40,01%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31604</t>
+          <t>32908</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28262</t>
+          <t>29628</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34843</t>
+          <t>36689</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31658</t>
+          <t>34836</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27908</t>
+          <t>30658</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35405</t>
+          <t>38786</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>63262</t>
+          <t>67744</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58249</t>
+          <t>62573</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68537</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>54,27%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5329</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>7154</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>9169</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>4268</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>9291</t>
+          <t>12267</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6785</t>
+          <t>8425</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9306</t>
+          <t>11574</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6305</t>
+          <t>8099</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9058</t>
+          <t>11255</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13090</t>
+          <t>16524</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9996</t>
+          <t>12971</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16574</t>
+          <t>21290</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28386</t>
+          <t>35733</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24738</t>
+          <t>31049</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32062</t>
+          <t>40591</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25237</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21620</t>
+          <t>27829</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28742</t>
+          <t>37860</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>53623</t>
+          <t>68410</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>48619</t>
+          <t>61906</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>58557</t>
+          <t>74462</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>41,18%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33524</t>
+          <t>42432</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29717</t>
+          <t>37508</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37550</t>
+          <t>47336</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31841</t>
+          <t>44283</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28434</t>
+          <t>38911</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>35564</t>
+          <t>49198</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>65366</t>
+          <t>86715</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>60111</t>
+          <t>80956</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>70659</t>
+          <t>94240</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>47,32%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>52,12%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7388</t>
+          <t>9271</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5226</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>12534</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3968</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7549</t>
+          <t>10315</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>12966</t>
+          <t>16665</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>10143</t>
+          <t>13467</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>16335</t>
+          <t>20692</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9637</t>
+          <t>12275</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7155</t>
+          <t>9349</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13172</t>
+          <t>15637</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8689</t>
+          <t>11531</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6384</t>
+          <t>8591</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11429</t>
+          <t>15041</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>18326</t>
+          <t>23807</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>14959</t>
+          <t>19257</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>22356</t>
+          <t>28487</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36298</t>
+          <t>45158</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32206</t>
+          <t>39762</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>40975</t>
+          <t>50443</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38929</t>
+          <t>46292</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34718</t>
+          <t>40980</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>43150</t>
+          <t>52296</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>75227</t>
+          <t>91450</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>69626</t>
+          <t>84164</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>80869</t>
+          <t>99468</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>39,29%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44264</t>
+          <t>59738</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39636</t>
+          <t>54260</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48898</t>
+          <t>65089</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>51,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46940</t>
+          <t>61477</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42537</t>
+          <t>55688</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51481</t>
+          <t>67199</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>91205</t>
+          <t>121215</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>85309</t>
+          <t>113715</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>97531</t>
+          <t>128649</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>50,82%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7135</t>
+          <t>7170</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5309</t>
+          <t>5240</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9976</t>
+          <t>10169</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7823</t>
+          <t>7552</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5491</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10586</t>
+          <t>10087</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14958</t>
+          <t>14722</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11832</t>
+          <t>11934</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18352</t>
+          <t>18746</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11012</t>
+          <t>10678</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14047</t>
+          <t>13849</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12011</t>
+          <t>12989</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9240</t>
+          <t>9997</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>15452</t>
+          <t>16265</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>23023</t>
+          <t>23667</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>18937</t>
+          <t>20280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>27653</t>
+          <t>28406</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55681</t>
+          <t>57777</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50686</t>
+          <t>52845</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60660</t>
+          <t>63042</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51820</t>
+          <t>54067</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>46859</t>
+          <t>48942</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>57494</t>
+          <t>59688</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>107501</t>
+          <t>111845</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>99208</t>
+          <t>104614</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>114424</t>
+          <t>119204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>39,97%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>67421</t>
+          <t>72515</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62469</t>
+          <t>66881</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>78048</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>51,4%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>68767</t>
+          <t>75466</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>63049</t>
+          <t>69832</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>74051</t>
+          <t>80869</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>136188</t>
+          <t>147981</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>129245</t>
+          <t>140939</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>144275</t>
+          <t>155952</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>52,3%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2661</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6577</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,32 +3045,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5417</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4119</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8387</t>
+          <t>7695</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>10124</t>
+          <t>9145</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>7568</t>
+          <t>6993</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>13283</t>
+          <t>11904</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12207</t>
+          <t>13223</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9713</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15263</t>
+          <t>16415</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14161</t>
+          <t>13984</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11133</t>
+          <t>11385</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>17430</t>
+          <t>17131</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>26368</t>
+          <t>27207</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>22354</t>
+          <t>23296</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31290</t>
+          <t>31613</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>51726</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>47064</t>
+          <t>43161</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>56975</t>
+          <t>52891</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>54773</t>
+          <t>48437</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>49584</t>
+          <t>43581</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>60492</t>
+          <t>53200</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>106499</t>
+          <t>96394</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>99344</t>
+          <t>90218</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>113901</t>
+          <t>104343</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -3349,32 +3349,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>59234</t>
+          <t>65162</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54510</t>
+          <t>60290</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>63992</t>
+          <t>70614</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>74725</t>
+          <t>71928</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>69363</t>
+          <t>67015</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>79915</t>
+          <t>76833</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>133959</t>
+          <t>137089</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>126551</t>
+          <t>129918</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>141157</t>
+          <t>144516</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>53,56%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3579,32 +3579,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9771</t>
+          <t>7983</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7755</t>
+          <t>7544</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>12610</t>
+          <t>11017</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>9819</t>
+          <t>8627</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>15927</t>
+          <t>13946</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9069</t>
+          <t>8736</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>7572</t>
+          <t>6740</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>10043</t>
+          <t>8908</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>13903</t>
+          <t>13192</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10975</t>
+          <t>10724</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>17431</t>
+          <t>16361</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>47068</t>
+          <t>36896</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>42596</t>
+          <t>33180</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>51928</t>
+          <t>41447</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>51702</t>
+          <t>46714</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>47298</t>
+          <t>42601</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>56736</t>
+          <t>51229</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>98769</t>
+          <t>83610</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>92480</t>
+          <t>77638</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>105294</t>
+          <t>89454</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -3918,32 +3918,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>52545</t>
+          <t>46577</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>47986</t>
+          <t>42135</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>57100</t>
+          <t>50633</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>50,5%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>52478</t>
+          <t>53226</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>47315</t>
+          <t>48799</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>57140</t>
+          <t>57578</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>105022</t>
+          <t>99804</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>98762</t>
+          <t>94105</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>111614</t>
+          <t>105945</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>51,03%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3605</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>4941</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,32 +4183,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>5126</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4377</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>9271</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,32 +4218,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>10033</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>7701</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>13201</t>
+          <t>11047</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>8257</t>
+          <t>6592</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>4807</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11097</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>9862</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>12551</t>
+          <t>12788</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>18118</t>
+          <t>16493</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>15039</t>
+          <t>13603</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>22027</t>
+          <t>19977</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>41653</t>
+          <t>32965</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37659</t>
+          <t>29270</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>46246</t>
+          <t>36573</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>53815</t>
+          <t>51438</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>49140</t>
+          <t>47184</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>59069</t>
+          <t>56160</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>95469</t>
+          <t>84403</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>88933</t>
+          <t>78848</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>101773</t>
+          <t>90866</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>44,02%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>44544</t>
+          <t>37571</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>40251</t>
+          <t>33980</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>48787</t>
+          <t>41164</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>63234</t>
+          <t>59568</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>58318</t>
+          <t>55093</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>67829</t>
+          <t>64072</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>107778</t>
+          <t>97139</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>100850</t>
+          <t>90791</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>114147</t>
+          <t>103277</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>50,03%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4717,102 +4717,102 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>35253</t>
+          <t>36869</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>30536</t>
+          <t>31432</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>40659</t>
+          <t>42635</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>39728</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34835</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>46293</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>76597</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>69824</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>84637</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
           <t>4,94%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>5,7%</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>38250</t>
-        </is>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>33279</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t>43962</t>
-        </is>
-      </c>
-      <c r="N39" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>73503</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>66494</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>81415</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -4830,32 +4830,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>60640</t>
+          <t>64409</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>54255</t>
+          <t>57749</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>68147</t>
+          <t>71003</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4865,32 +4865,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>63645</t>
+          <t>68037</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>57031</t>
+          <t>61182</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>70727</t>
+          <t>75907</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,32 +4900,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>124285</t>
+          <t>132446</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>115771</t>
+          <t>122677</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>134335</t>
+          <t>143602</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,25%</t>
         </is>
       </c>
     </row>
@@ -4943,32 +4943,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>284743</t>
+          <t>281506</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>273143</t>
+          <t>270583</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>296261</t>
+          <t>293329</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,32 +4978,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>298690</t>
+          <t>303810</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>286347</t>
+          <t>290670</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>311129</t>
+          <t>315531</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,32 +5013,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>583432</t>
+          <t>585316</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>566886</t>
+          <t>569032</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>601535</t>
+          <t>604662</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>38,96%</t>
         </is>
       </c>
     </row>
@@ -5056,32 +5056,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>333136</t>
+          <t>356904</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>321520</t>
+          <t>344489</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>345658</t>
+          <t>368330</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>369642</t>
+          <t>400784</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>358065</t>
+          <t>387600</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>382111</t>
+          <t>414158</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>702779</t>
+          <t>757688</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>683830</t>
+          <t>738452</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>719352</t>
+          <t>775222</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>49,95%</t>
         </is>
       </c>
     </row>
@@ -5169,17 +5169,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5204,17 +5204,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5239,17 +5239,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">

--- a/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Edad-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>657</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4516</t>
+          <t>539</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7544</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7479</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5170</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10334</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6764</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4884</t>
+          <t>720</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9488</t>
+          <t>7387</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4792</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7248</t>
+          <t>6794</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11556</t>
+          <t>6154</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>8772</t>
+          <t>3265</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14899</t>
+          <t>11057</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25019</t>
+          <t>63598</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21635</t>
+          <t>54818</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28641</t>
+          <t>71538</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>51,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>67,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24186</t>
+          <t>57602</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20787</t>
+          <t>49891</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28205</t>
+          <t>65847</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>47,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>49204</t>
+          <t>121199</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>43931</t>
+          <t>109215</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>54411</t>
+          <t>132301</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>62,45%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32908</t>
+          <t>37864</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29628</t>
+          <t>30673</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36689</t>
+          <t>47706</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34836</t>
+          <t>43749</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30658</t>
+          <t>35880</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38786</t>
+          <t>51742</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>67744</t>
+          <t>81613</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>62573</t>
+          <t>70364</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>73793</t>
+          <t>93676</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>44,22%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67654</t>
+          <t>106582</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68329</t>
+          <t>105277</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>354</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>135983</t>
+          <t>211859</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4735</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7514</t>
+          <t>8308</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>5207</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7154</t>
+          <t>10132</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>9169</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>4801</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>12267</t>
+          <t>14704</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8425</t>
+          <t>8943</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11574</t>
+          <t>15190</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8099</t>
+          <t>12894</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>7850</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11255</t>
+          <t>20769</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16524</t>
+          <t>21837</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12971</t>
+          <t>14441</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21290</t>
+          <t>30643</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -1524,72 +1524,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35733</t>
+          <t>89988</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31049</t>
+          <t>78813</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40591</t>
+          <t>100178</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>57,67%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32677</t>
+          <t>94074</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27829</t>
+          <t>81180</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37860</t>
+          <t>106316</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>68410</t>
+          <t>184061</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>61906</t>
+          <t>167143</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>74462</t>
+          <t>201123</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>54,1%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42432</t>
+          <t>71262</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37508</t>
+          <t>61511</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47336</t>
+          <t>82859</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,83%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44283</t>
+          <t>85848</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38911</t>
+          <t>74460</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>49198</t>
+          <t>100106</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>239</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>86715</t>
+          <t>157110</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>80956</t>
+          <t>140490</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>94240</t>
+          <t>174074</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>46,83%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91325</t>
+          <t>173716</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198022</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198022</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89493</t>
+          <t>198022</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>371738</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>371738</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>180818</t>
+          <t>371738</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9271</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6634</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12534</t>
+          <t>8387</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>2782</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5312</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10315</t>
+          <t>6338</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>16665</t>
+          <t>6697</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>13467</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>20692</t>
+          <t>12129</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12275</t>
+          <t>8798</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9349</t>
+          <t>4945</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15637</t>
+          <t>15236</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11531</t>
+          <t>6967</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8591</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15041</t>
+          <t>13133</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>23807</t>
+          <t>15764</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>19257</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>28487</t>
+          <t>24506</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45158</t>
+          <t>129068</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39762</t>
+          <t>115418</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50443</t>
+          <t>142944</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46292</t>
+          <t>126570</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40980</t>
+          <t>114942</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52296</t>
+          <t>138612</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>47,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>416</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>91450</t>
+          <t>255638</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>84164</t>
+          <t>237971</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>99468</t>
+          <t>274530</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>56,23%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59738</t>
+          <t>104253</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>54260</t>
+          <t>91710</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65089</t>
+          <t>117540</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>61477</t>
+          <t>105869</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>55688</t>
+          <t>94179</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>67199</t>
+          <t>118222</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>335</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>121215</t>
+          <t>210122</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>113715</t>
+          <t>192504</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>128649</t>
+          <t>227874</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126443</t>
+          <t>246034</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>397</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242188</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242188</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>126694</t>
+          <t>242188</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>786</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488222</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488222</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>253136</t>
+          <t>488222</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,107 +2436,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7170</t>
+          <t>6234</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10169</t>
+          <t>10773</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7552</t>
+          <t>6880</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5491</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10087</t>
+          <t>12539</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14722</t>
+          <t>13115</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11934</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18746</t>
+          <t>19134</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10678</t>
+          <t>10153</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8022</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13849</t>
+          <t>16514</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12989</t>
+          <t>9553</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9997</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>16265</t>
+          <t>16138</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>23667</t>
+          <t>19706</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>20280</t>
+          <t>13676</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>28406</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>57777</t>
+          <t>154840</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52845</t>
+          <t>141577</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>63042</t>
+          <t>168198</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>224</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>54067</t>
+          <t>135178</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>48942</t>
+          <t>121618</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>59688</t>
+          <t>148295</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>475</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>111845</t>
+          <t>290018</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>104614</t>
+          <t>268970</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>119204</t>
+          <t>308773</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>54,11%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>72515</t>
+          <t>124239</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>66881</t>
+          <t>111536</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>78048</t>
+          <t>138366</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>75466</t>
+          <t>123581</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>69832</t>
+          <t>110073</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>80869</t>
+          <t>137460</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>147981</t>
+          <t>247820</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>140939</t>
+          <t>228626</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>155952</t>
+          <t>267779</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>46,92%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>148140</t>
+          <t>295467</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>450</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>150074</t>
+          <t>275192</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>298215</t>
+          <t>570659</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3005,107 +3005,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3728</t>
+          <t>5745</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>10056</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5417</t>
+          <t>6356</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>7695</t>
+          <t>12180</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>9145</t>
+          <t>12101</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>6993</t>
+          <t>7307</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>11904</t>
+          <t>18874</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -3118,107 +3118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13223</t>
+          <t>11700</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10205</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16415</t>
+          <t>19649</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13984</t>
+          <t>10884</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>11385</t>
+          <t>6546</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>17131</t>
+          <t>16252</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>27207</t>
+          <t>22584</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>23296</t>
+          <t>14935</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31613</t>
+          <t>31156</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -3231,107 +3231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>47957</t>
+          <t>125766</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>43161</t>
+          <t>112756</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>52891</t>
+          <t>137424</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>48,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>48437</t>
+          <t>116562</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>43581</t>
+          <t>104218</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>53200</t>
+          <t>129137</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>96394</t>
+          <t>242327</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>90218</t>
+          <t>224899</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>104343</t>
+          <t>259829</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -3344,107 +3344,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>65162</t>
+          <t>90719</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>60290</t>
+          <t>78855</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>70614</t>
+          <t>102991</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>44,03%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>71928</t>
+          <t>103147</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>67015</t>
+          <t>91708</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>76833</t>
+          <t>115766</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>306</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>137089</t>
+          <t>193866</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>129918</t>
+          <t>177632</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>144516</t>
+          <t>211461</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>44,91%</t>
         </is>
       </c>
     </row>
@@ -3457,22 +3457,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233929</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233929</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>130069</t>
+          <t>233929</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3492,22 +3492,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>139766</t>
+          <t>236948</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3527,22 +3527,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>760</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470877</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470877</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>269835</t>
+          <t>470877</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3574,107 +3574,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>5807</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
           <t>3992</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>7983</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>5290</t>
-        </is>
-      </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7544</t>
+          <t>7924</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>11017</t>
+          <t>7146</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>8627</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>13946</t>
+          <t>11373</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -3687,107 +3687,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>6807</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>10419</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>7959</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>12742</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>6452</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>4652</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>8736</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>6740</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>4938</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>8908</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>13192</t>
+          <t>14766</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10724</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>16361</t>
+          <t>19994</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -3800,107 +3800,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>36896</t>
+          <t>96735</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>33180</t>
+          <t>88281</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>41447</t>
+          <t>103981</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>53,24%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>46714</t>
+          <t>95517</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>42601</t>
+          <t>87198</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>51229</t>
+          <t>104182</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>59,15%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>83610</t>
+          <t>192252</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>77638</t>
+          <t>179989</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>89454</t>
+          <t>204195</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>57,06%</t>
         </is>
       </c>
     </row>
@@ -3913,107 +3913,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>46577</t>
+          <t>75005</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>42135</t>
+          <t>67706</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>50633</t>
+          <t>83530</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>53226</t>
+          <t>68666</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>48799</t>
+          <t>60426</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>57578</t>
+          <t>77161</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>417</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>99804</t>
+          <t>143671</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>94105</t>
+          <t>131863</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>105945</t>
+          <t>156104</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>43,62%</t>
         </is>
       </c>
     </row>
@@ -4026,22 +4026,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181700</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181700</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>95652</t>
+          <t>181700</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,22 +4061,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>176135</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>176135</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>111970</t>
+          <t>176135</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,22 +4096,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357835</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357835</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>207623</t>
+          <t>357835</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,107 +4143,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>2386</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4941</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5126</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>7452</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>8401</t>
+          <t>6297</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>11047</t>
+          <t>10465</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -4256,107 +4256,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6592</t>
+          <t>6041</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4807</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>9483</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>9901</t>
+          <t>5055</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>7839</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>12788</t>
+          <t>8927</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>16493</t>
+          <t>11096</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>13603</t>
+          <t>7621</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>19977</t>
+          <t>15908</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -4369,107 +4369,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>32965</t>
+          <t>83293</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>29270</t>
+          <t>76529</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>36573</t>
+          <t>90023</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>51438</t>
+          <t>114899</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>47184</t>
+          <t>105414</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>56160</t>
+          <t>123619</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>55,98%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>559</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>84403</t>
+          <t>198192</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>78848</t>
+          <t>186576</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>90866</t>
+          <t>209358</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>62,51%</t>
         </is>
       </c>
     </row>
@@ -4482,107 +4482,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>37571</t>
+          <t>54876</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>33980</t>
+          <t>48175</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>41164</t>
+          <t>61420</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>59568</t>
+          <t>64431</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>55093</t>
+          <t>55900</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>64072</t>
+          <t>72971</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>97139</t>
+          <t>119308</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>90791</t>
+          <t>107853</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>103277</t>
+          <t>130711</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>39,03%</t>
         </is>
       </c>
     </row>
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146597</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146597</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>80403</t>
+          <t>146597</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4630,22 +4630,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>473</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188296</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188296</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>126033</t>
+          <t>188296</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>954</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334893</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334893</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>206436</t>
+          <t>334893</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4712,107 +4712,107 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>36869</t>
+          <t>27310</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>31432</t>
+          <t>20495</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>42635</t>
+          <t>36089</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>39728</t>
+          <t>29667</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>34835</t>
+          <t>22139</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>46293</t>
+          <t>38959</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>104</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>76597</t>
+          <t>56978</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>69824</t>
+          <t>47004</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>84637</t>
+          <t>68954</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -4825,107 +4825,107 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>64409</t>
+          <t>55209</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>57749</t>
+          <t>45136</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>71003</t>
+          <t>69495</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>68037</t>
+          <t>56698</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>61182</t>
+          <t>45589</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>75907</t>
+          <t>69788</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>203</t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>132446</t>
+          <t>111908</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>122677</t>
+          <t>94582</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>143602</t>
+          <t>128548</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -4938,107 +4938,107 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1488</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>281506</t>
+          <t>743287</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>270583</t>
+          <t>714266</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>293329</t>
+          <t>772548</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>53,7%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>303810</t>
+          <t>740400</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>290670</t>
+          <t>712269</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>315531</t>
+          <t>770437</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>50,09%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>585316</t>
+          <t>1483687</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>569032</t>
+          <t>1446250</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>604662</t>
+          <t>1528525</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>54,47%</t>
         </is>
       </c>
     </row>
@@ -5051,107 +5051,107 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>356904</t>
+          <t>558219</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>344489</t>
+          <t>529932</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>368330</t>
+          <t>586707</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>2176</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>400784</t>
+          <t>595291</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>387600</t>
+          <t>564887</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>414158</t>
+          <t>622913</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>757688</t>
+          <t>1153509</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>738452</t>
+          <t>1113265</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>775222</t>
+          <t>1192438</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>42,49%</t>
         </is>
       </c>
     </row>
@@ -5164,22 +5164,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384025</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384025</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>739687</t>
+          <t>1384025</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5199,22 +5199,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1422057</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1422057</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>812359</t>
+          <t>1422057</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5234,22 +5234,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>5380</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2806082</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2806082</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1552046</t>
+          <t>2806082</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5339,7 +5339,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5524,107 +5524,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>4516</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>7544</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>7479</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>5170</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>10334</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -5637,107 +5637,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>6764</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>4884</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>9488</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3388</t>
+          <t>4792</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>3025</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6794</t>
+          <t>7248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11556</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8772</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14899</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>6,45%</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>6154</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>3265</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>11057</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -5750,107 +5750,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63598</t>
+          <t>25019</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>54818</t>
+          <t>21635</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71538</t>
+          <t>28641</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,67%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,12%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>57602</t>
+          <t>24186</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49891</t>
+          <t>20787</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>65847</t>
+          <t>28205</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>271</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>121199</t>
+          <t>49204</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>109215</t>
+          <t>43931</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>132301</t>
+          <t>54411</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>40,01%</t>
         </is>
       </c>
     </row>
@@ -5863,107 +5863,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37864</t>
+          <t>32908</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30673</t>
+          <t>29628</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47706</t>
+          <t>36689</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43749</t>
+          <t>34836</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35880</t>
+          <t>30658</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51742</t>
+          <t>38786</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>355</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>81613</t>
+          <t>67744</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>70364</t>
+          <t>62573</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>93676</t>
+          <t>73793</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>54,27%</t>
         </is>
       </c>
     </row>
@@ -5976,22 +5976,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>106582</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6011,22 +6011,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105277</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6046,22 +6046,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>211859</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6093,107 +6093,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8308</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10132</t>
+          <t>7154</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>9169</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>4801</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14704</t>
+          <t>12267</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -6206,107 +6206,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8943</t>
+          <t>8425</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15190</t>
+          <t>11574</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12894</t>
+          <t>8099</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7850</t>
+          <t>5687</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20769</t>
+          <t>11255</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>21837</t>
+          <t>16524</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14441</t>
+          <t>12971</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30643</t>
+          <t>21290</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -6319,72 +6319,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89988</t>
+          <t>35733</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78813</t>
+          <t>31049</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>100178</t>
+          <t>40591</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94074</t>
+          <t>32677</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81180</t>
+          <t>27829</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>106316</t>
+          <t>37860</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6394,32 +6394,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>184061</t>
+          <t>68410</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>167143</t>
+          <t>61906</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>201123</t>
+          <t>74462</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>41,18%</t>
         </is>
       </c>
     </row>
@@ -6432,107 +6432,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71262</t>
+          <t>42432</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61511</t>
+          <t>37508</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82859</t>
+          <t>47336</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85848</t>
+          <t>44283</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>74460</t>
+          <t>38911</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>100106</t>
+          <t>49198</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>378</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>157110</t>
+          <t>86715</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>140490</t>
+          <t>80956</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>174074</t>
+          <t>94240</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>52,12%</t>
         </is>
       </c>
     </row>
@@ -6545,22 +6545,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>173716</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6580,22 +6580,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>198022</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>198022</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>198022</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6615,22 +6615,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>371738</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>371738</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>371738</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6662,107 +6662,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>9271</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>6634</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8387</t>
+          <t>12534</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>5312</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6338</t>
+          <t>10315</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>6697</t>
+          <t>16665</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>13467</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>12129</t>
+          <t>20692</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -6775,107 +6775,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8798</t>
+          <t>12275</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>9349</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15236</t>
+          <t>15637</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6967</t>
+          <t>11531</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>8591</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13133</t>
+          <t>15041</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>112</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>15764</t>
+          <t>23807</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>19257</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>24506</t>
+          <t>28487</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -6888,107 +6888,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>129068</t>
+          <t>45158</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>115418</t>
+          <t>39762</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>142944</t>
+          <t>50443</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>126570</t>
+          <t>46292</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>114942</t>
+          <t>40980</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>138612</t>
+          <t>52296</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>255638</t>
+          <t>91450</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>237971</t>
+          <t>84164</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>274530</t>
+          <t>99468</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>39,29%</t>
         </is>
       </c>
     </row>
@@ -7001,107 +7001,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>104253</t>
+          <t>59738</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91710</t>
+          <t>54260</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>117540</t>
+          <t>65089</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>51,48%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>105869</t>
+          <t>61477</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>94179</t>
+          <t>55688</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>67199</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>530</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>210122</t>
+          <t>121215</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>192504</t>
+          <t>113715</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>227874</t>
+          <t>128649</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>50,82%</t>
         </is>
       </c>
     </row>
@@ -7114,22 +7114,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7149,22 +7149,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>242188</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>242188</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>242188</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7184,22 +7184,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488222</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488222</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488222</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7231,107 +7231,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6234</t>
+          <t>7170</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3156</t>
+          <t>5240</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10773</t>
+          <t>10169</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6880</t>
+          <t>7552</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3574</t>
+          <t>5491</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12539</t>
+          <t>10087</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>13115</t>
+          <t>14722</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>11934</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19134</t>
+          <t>18746</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -7344,107 +7344,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10153</t>
+          <t>10678</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16514</t>
+          <t>13849</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>12989</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>9997</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>16138</t>
+          <t>16265</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>132</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>19706</t>
+          <t>23667</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13676</t>
+          <t>20280</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>28278</t>
+          <t>28406</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -7457,107 +7457,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>154840</t>
+          <t>57777</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>141577</t>
+          <t>52845</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>168198</t>
+          <t>63042</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>135178</t>
+          <t>54067</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>121618</t>
+          <t>48942</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>148295</t>
+          <t>59688</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>613</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>290018</t>
+          <t>111845</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>268970</t>
+          <t>104614</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>308773</t>
+          <t>119204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>54,11%</t>
+          <t>39,97%</t>
         </is>
       </c>
     </row>
@@ -7570,107 +7570,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>124239</t>
+          <t>72515</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>111536</t>
+          <t>66881</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>138366</t>
+          <t>78048</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>403</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>123581</t>
+          <t>75466</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>110073</t>
+          <t>69832</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>137460</t>
+          <t>80869</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>791</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>247820</t>
+          <t>147981</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>228626</t>
+          <t>140939</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>267779</t>
+          <t>155952</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>52,3%</t>
         </is>
       </c>
     </row>
@@ -7683,22 +7683,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>295467</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7718,22 +7718,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>275192</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7753,22 +7753,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>570659</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -7800,107 +7800,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5745</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10056</t>
+          <t>5490</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6356</t>
+          <t>5417</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3327</t>
+          <t>3899</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>12180</t>
+          <t>7695</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>12101</t>
+          <t>9145</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>7307</t>
+          <t>6993</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>18874</t>
+          <t>11904</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -7913,107 +7913,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>11700</t>
+          <t>13223</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19649</t>
+          <t>16415</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10884</t>
+          <t>13984</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6546</t>
+          <t>11385</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>16252</t>
+          <t>17131</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>22584</t>
+          <t>27207</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>14935</t>
+          <t>23296</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31156</t>
+          <t>31613</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -8026,107 +8026,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>125766</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>112756</t>
+          <t>43161</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>137424</t>
+          <t>52891</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>53,76%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>308</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>116562</t>
+          <t>48437</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>104218</t>
+          <t>43581</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>129137</t>
+          <t>53200</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>242327</t>
+          <t>96394</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>224899</t>
+          <t>90218</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>259829</t>
+          <t>104343</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>47,76%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -8139,107 +8139,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>90719</t>
+          <t>65162</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>78855</t>
+          <t>60290</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>102991</t>
+          <t>70614</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>103147</t>
+          <t>71928</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>91708</t>
+          <t>67015</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>115766</t>
+          <t>76833</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>782</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>193866</t>
+          <t>137089</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>177632</t>
+          <t>129918</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>211461</t>
+          <t>144516</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>53,56%</t>
         </is>
       </c>
     </row>
@@ -8252,22 +8252,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>233929</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>233929</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>233929</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -8287,22 +8287,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>236948</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -8322,22 +8322,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>470877</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>470877</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>470877</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -8369,107 +8369,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>7983</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7924</t>
+          <t>7544</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>11017</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>8627</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>11373</t>
+          <t>13946</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -8482,107 +8482,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6807</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10419</t>
+          <t>8736</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>7959</t>
+          <t>6740</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>4908</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>12742</t>
+          <t>8908</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>14766</t>
+          <t>13192</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10736</t>
+          <t>10724</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>19994</t>
+          <t>16361</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -8595,107 +8595,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>96735</t>
+          <t>36896</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>88281</t>
+          <t>33180</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>103981</t>
+          <t>41447</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>95517</t>
+          <t>46714</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>87198</t>
+          <t>42601</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>104182</t>
+          <t>51229</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>59,15%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>560</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>192252</t>
+          <t>83610</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>179989</t>
+          <t>77638</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>204195</t>
+          <t>89454</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -8708,107 +8708,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>75005</t>
+          <t>46577</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>67706</t>
+          <t>42135</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>83530</t>
+          <t>50633</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>68666</t>
+          <t>53226</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>60426</t>
+          <t>48799</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>77161</t>
+          <t>57578</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>637</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>143671</t>
+          <t>99804</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>131863</t>
+          <t>94105</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>156104</t>
+          <t>105945</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>51,03%</t>
         </is>
       </c>
     </row>
@@ -8821,22 +8821,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>181700</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>181700</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>181700</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -8856,22 +8856,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>176135</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>176135</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>176135</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -8891,22 +8891,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>357835</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>357835</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>357835</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8938,107 +8938,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>2386</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>4941</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>5126</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>6297</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>6233</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>10465</t>
+          <t>11047</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -9051,107 +9051,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6041</t>
+          <t>6592</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>4807</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9483</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>7839</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>8927</t>
+          <t>12788</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>11096</t>
+          <t>16493</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>7621</t>
+          <t>13603</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>15908</t>
+          <t>19977</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -9164,107 +9164,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>83293</t>
+          <t>32965</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>76529</t>
+          <t>29270</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>90023</t>
+          <t>36573</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>324</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>114899</t>
+          <t>51438</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>105414</t>
+          <t>47184</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>123619</t>
+          <t>56160</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>551</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>198192</t>
+          <t>84403</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>186576</t>
+          <t>78848</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>209358</t>
+          <t>90866</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>44,02%</t>
         </is>
       </c>
     </row>
@@ -9277,107 +9277,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>54876</t>
+          <t>37571</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>48175</t>
+          <t>33980</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>61420</t>
+          <t>41164</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>46,73%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>64431</t>
+          <t>59568</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>55900</t>
+          <t>55093</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>72971</t>
+          <t>64072</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>639</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>119308</t>
+          <t>97139</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>107853</t>
+          <t>90791</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>130711</t>
+          <t>103277</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>50,03%</t>
         </is>
       </c>
     </row>
@@ -9390,22 +9390,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>146597</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>146597</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>146597</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -9425,22 +9425,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>188296</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>188296</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>188296</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -9460,22 +9460,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>334893</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>334893</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>334893</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -9507,107 +9507,107 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>27310</t>
+          <t>36869</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>20495</t>
+          <t>31432</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>36089</t>
+          <t>42635</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>29667</t>
+          <t>39728</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>22139</t>
+          <t>34835</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>38959</t>
+          <t>46293</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>56978</t>
+          <t>76597</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>47004</t>
+          <t>69824</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>68954</t>
+          <t>84637</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -9620,107 +9620,107 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>354</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>55209</t>
+          <t>64409</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>45136</t>
+          <t>57749</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>69495</t>
+          <t>71003</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>56698</t>
+          <t>68037</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>45589</t>
+          <t>61182</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>69788</t>
+          <t>75907</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>736</t>
         </is>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>111908</t>
+          <t>132446</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>94582</t>
+          <t>122677</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>128548</t>
+          <t>143602</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>9,25%</t>
         </is>
       </c>
     </row>
@@ -9733,107 +9733,107 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>743287</t>
+          <t>281506</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>714266</t>
+          <t>270583</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>772548</t>
+          <t>293329</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>51,61%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>740400</t>
+          <t>303810</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>712269</t>
+          <t>290670</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>770437</t>
+          <t>315531</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>3318</t>
         </is>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>1483687</t>
+          <t>585316</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1446250</t>
+          <t>569032</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>1528525</t>
+          <t>604662</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>38,96%</t>
         </is>
       </c>
     </row>
@@ -9846,107 +9846,107 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>558219</t>
+          <t>356904</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>529932</t>
+          <t>344489</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>586707</t>
+          <t>368330</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>595291</t>
+          <t>400784</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>564887</t>
+          <t>387600</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>622913</t>
+          <t>414158</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>2181</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>1153509</t>
+          <t>757688</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>1113265</t>
+          <t>738452</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1192438</t>
+          <t>775222</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>49,95%</t>
         </is>
       </c>
     </row>
@@ -9959,22 +9959,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>1384025</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>1384025</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1384025</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -9994,22 +9994,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>1422057</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>1422057</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>1422057</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -10029,22 +10029,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>5380</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>2806082</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>2806082</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>2806082</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
